--- a/COPY SIMPLE P KIT/kits.xlsx
+++ b/COPY SIMPLE P KIT/kits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\__AUTOMAÇÕES\Copy-SKU-Any\Copy-SKU-ANY\COPY SIMPLE P KIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17F418E-E53D-4F0D-BA1F-6DA0414C294C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{218001C8-7E7E-4A7E-88E0-4D8561FE6238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="126">
   <si>
     <t>id_prod_hub</t>
   </si>
@@ -47,14 +47,377 @@
     <t>sku_composicao</t>
   </si>
   <si>
-    <t>97502A</t>
+    <t>DP97515</t>
+  </si>
+  <si>
+    <t>7898148430611</t>
+  </si>
+  <si>
+    <t>DP97502</t>
+  </si>
+  <si>
+    <t>7898148439034</t>
+  </si>
+  <si>
+    <t>DP86161</t>
+  </si>
+  <si>
+    <t>7891904825195</t>
+  </si>
+  <si>
+    <t>DP86140</t>
+  </si>
+  <si>
+    <t>7891904426521</t>
+  </si>
+  <si>
+    <t>DP57309</t>
+  </si>
+  <si>
+    <t>7891903941254</t>
+  </si>
+  <si>
+    <t>DP57249</t>
+  </si>
+  <si>
+    <t>7891903940837</t>
+  </si>
+  <si>
+    <t>DP57062</t>
+  </si>
+  <si>
+    <t>7891903921980</t>
+  </si>
+  <si>
+    <t>DP48728</t>
+  </si>
+  <si>
+    <t>7891904701758</t>
+  </si>
+  <si>
+    <t>DP48683</t>
+  </si>
+  <si>
+    <t>7908561905303</t>
+  </si>
+  <si>
+    <t>DP42520</t>
+  </si>
+  <si>
+    <t>7891903969456</t>
+  </si>
+  <si>
+    <t>DP1860</t>
+  </si>
+  <si>
+    <t>7891903810338</t>
+  </si>
+  <si>
+    <t>DP11815</t>
+  </si>
+  <si>
+    <t>7891903858002</t>
+  </si>
+  <si>
+    <t>DP117507</t>
+  </si>
+  <si>
+    <t>7898384774418</t>
+  </si>
+  <si>
+    <t>DP117506</t>
+  </si>
+  <si>
+    <t>7898384774425</t>
+  </si>
+  <si>
+    <t>DP117505</t>
+  </si>
+  <si>
+    <t>7898384774180</t>
+  </si>
+  <si>
+    <t>DP10739</t>
+  </si>
+  <si>
+    <t>7891903820573</t>
+  </si>
+  <si>
+    <t>DP117504</t>
+  </si>
+  <si>
+    <t>7898384775927</t>
+  </si>
+  <si>
+    <t>DP118000</t>
+  </si>
+  <si>
+    <t>7891904825157</t>
+  </si>
+  <si>
+    <t>DP118001</t>
+  </si>
+  <si>
+    <t>7891904825164</t>
+  </si>
+  <si>
+    <t>DP118002</t>
+  </si>
+  <si>
+    <t>7891904825171</t>
+  </si>
+  <si>
+    <t>DP111546</t>
+  </si>
+  <si>
+    <t>7898450095300</t>
+  </si>
+  <si>
+    <t>DP81193</t>
+  </si>
+  <si>
+    <t>7898726809044</t>
+  </si>
+  <si>
+    <t>DP47037</t>
+  </si>
+  <si>
+    <t>7898488213349</t>
+  </si>
+  <si>
+    <t>DP96651</t>
+  </si>
+  <si>
+    <t>7899671467686</t>
+  </si>
+  <si>
+    <t>DP47257</t>
+  </si>
+  <si>
+    <t>7898421203956</t>
+  </si>
+  <si>
+    <t>DP47255</t>
+  </si>
+  <si>
+    <t>7898421203970</t>
+  </si>
+  <si>
+    <t>DP47258</t>
+  </si>
+  <si>
+    <t>7898421204076</t>
+  </si>
+  <si>
+    <t>DP47253</t>
+  </si>
+  <si>
+    <t>7898421204090</t>
+  </si>
+  <si>
+    <t>DP47254</t>
+  </si>
+  <si>
+    <t>7898421205240</t>
+  </si>
+  <si>
+    <t>DP47252</t>
+  </si>
+  <si>
+    <t>7898421205257</t>
+  </si>
+  <si>
+    <t>DP47256</t>
+  </si>
+  <si>
+    <t>7898421204205</t>
+  </si>
+  <si>
+    <t>DP88003</t>
+  </si>
+  <si>
+    <t>7893596288388</t>
+  </si>
+  <si>
+    <t>DP88004</t>
+  </si>
+  <si>
+    <t>7893596288395</t>
+  </si>
+  <si>
+    <t>DP46271</t>
+  </si>
+  <si>
+    <t>7891903971947</t>
+  </si>
+  <si>
+    <t>DP74002</t>
+  </si>
+  <si>
+    <t>7899486333466</t>
+  </si>
+  <si>
+    <t>DP57080</t>
+  </si>
+  <si>
+    <t>7891903922161</t>
+  </si>
+  <si>
+    <t>DP57076</t>
+  </si>
+  <si>
+    <t>7891903922123</t>
+  </si>
+  <si>
+    <t>DP57081</t>
+  </si>
+  <si>
+    <t>7891903922178</t>
+  </si>
+  <si>
+    <t>DP86144</t>
+  </si>
+  <si>
+    <t>7891904426569</t>
+  </si>
+  <si>
+    <t>DP56532</t>
+  </si>
+  <si>
+    <t>7891904081539</t>
+  </si>
+  <si>
+    <t>DP71000</t>
+  </si>
+  <si>
+    <t>7897375173063</t>
+  </si>
+  <si>
+    <t>DP71010</t>
+  </si>
+  <si>
+    <t>7891904507992</t>
+  </si>
+  <si>
+    <t>DP92008</t>
+  </si>
+  <si>
+    <t>7899741100253</t>
+  </si>
+  <si>
+    <t>DP65525</t>
+  </si>
+  <si>
+    <t>7891904115258</t>
+  </si>
+  <si>
+    <t>DP65532</t>
+  </si>
+  <si>
+    <t>7891904115326</t>
+  </si>
+  <si>
+    <t>DP111002</t>
+  </si>
+  <si>
+    <t>7895606944512</t>
+  </si>
+  <si>
+    <t>DP111003</t>
+  </si>
+  <si>
+    <t>7895606944529</t>
+  </si>
+  <si>
+    <t>DP98127</t>
+  </si>
+  <si>
+    <t>7899766515056</t>
+  </si>
+  <si>
+    <t>DP96502</t>
+  </si>
+  <si>
+    <t>7899671469741</t>
+  </si>
+  <si>
+    <t>DP50562</t>
+  </si>
+  <si>
+    <t>7899075420362</t>
+  </si>
+  <si>
+    <t>DP68582</t>
+  </si>
+  <si>
+    <t>7891904412906</t>
+  </si>
+  <si>
+    <t>DP88006</t>
+  </si>
+  <si>
+    <t>7893596288302</t>
+  </si>
+  <si>
+    <t>DP74003</t>
+  </si>
+  <si>
+    <t>7899486358933</t>
+  </si>
+  <si>
+    <t>DP61077</t>
+  </si>
+  <si>
+    <t>7891904191610</t>
+  </si>
+  <si>
+    <t>DP57255</t>
+  </si>
+  <si>
+    <t>7891903940899</t>
+  </si>
+  <si>
+    <t>DP47192</t>
+  </si>
+  <si>
+    <t>7898421200733</t>
+  </si>
+  <si>
+    <t>DP47022</t>
+  </si>
+  <si>
+    <t>7898488210676</t>
+  </si>
+  <si>
+    <t>DP47088</t>
+  </si>
+  <si>
+    <t>7898488217026</t>
+  </si>
+  <si>
+    <t>DP81214</t>
+  </si>
+  <si>
+    <t>7891904668822</t>
+  </si>
+  <si>
+    <t>DP81215</t>
+  </si>
+  <si>
+    <t>7891904668839</t>
+  </si>
+  <si>
+    <t>DP57294</t>
+  </si>
+  <si>
+    <t>7891903941162</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +432,12 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -91,11 +460,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -371,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -400,17 +770,1711 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2">
+      <c r="A2" s="2">
+        <v>347869103</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>97515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>347869103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>97515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>347869114</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>97502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
+        <v>347869114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>97502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
+        <v>347869120</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>86161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>347869120</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>86161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>347869121</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2">
+        <v>86140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>347869121</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2">
+        <v>86140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>347869123</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2">
+        <v>57309</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>347869123</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>57309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>347869125</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2">
+        <v>57249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>347869125</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="2">
+        <v>57249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>347869126</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="2">
+        <v>57062</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>347869126</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="2">
+        <v>57062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>347869127</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
+        <v>48728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>347869127</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>48728</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>347869131</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2">
+        <v>48683</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>347869131</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2">
+        <v>48683</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>347869138</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="2">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>347869138</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="2">
+        <v>42520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>347869140</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>347869140</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>347869142</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="2">
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>347869142</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>347869143</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="2">
+        <v>117507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2">
+        <v>347869143</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="2">
+        <v>117507</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2">
+        <v>347869145</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="2">
+        <v>117506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2">
+        <v>347869145</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29" s="2">
+        <v>117506</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2">
+        <v>347869147</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2">
+        <v>117505</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2">
+        <v>347869147</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="2">
+        <v>117505</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="2">
+        <v>347869162</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2">
+        <v>347869162</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="2">
+        <v>348549907</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" s="2">
+        <v>117504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="2">
+        <v>348549907</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="2">
+        <v>117504</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="2">
+        <v>348805475</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" s="2">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2">
+        <v>348805475</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" s="2">
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2">
+        <v>348805491</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="2">
+        <v>118001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="2">
+        <v>348805491</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D39" s="2">
+        <v>118001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2">
+        <v>348805512</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="2">
+        <v>118002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="2">
+        <v>348805512</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="2">
+        <v>118002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="2">
+        <v>349166862</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42" s="2">
+        <v>111546</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2">
+        <v>349166862</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="2">
+        <v>111546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2">
+        <v>349167037</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" s="2">
+        <v>81193</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2">
+        <v>349167037</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="2">
+        <v>81193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2">
+        <v>349167076</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46" s="2">
+        <v>47037</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2">
+        <v>349167076</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="2">
+        <v>47037</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="2">
+        <v>349167121</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="2">
+        <v>96651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
+        <v>349167121</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="2">
+        <v>96651</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
+        <v>349167596</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="2">
+        <v>47257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
+        <v>349167596</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="2">
+        <v>47257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
+        <v>349167627</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="2">
+        <v>47255</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
+        <v>349167627</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" s="2">
+        <v>47255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
+        <v>349167685</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="2">
+        <v>47258</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
+        <v>349167685</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D55" s="2">
+        <v>47258</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
+        <v>349167942</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="2">
+        <v>47253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
+        <v>349167942</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="2">
+        <v>47253</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
+        <v>349167988</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="2">
+        <v>47254</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
+        <v>349167988</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D59" s="2">
+        <v>47254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
+        <v>349168034</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="2">
+        <v>47252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
+        <v>349168034</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="2">
+        <v>47252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
+        <v>349168077</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="2">
+        <v>47256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
+        <v>349168077</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" s="2">
+        <v>47256</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
+        <v>349702796</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="2">
+        <v>88003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
+        <v>349702796</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="2">
+        <v>88003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
+        <v>349702806</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="2">
+        <v>88004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
+        <v>349702806</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" s="2">
+        <v>88004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
+        <v>349741948</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" s="2">
+        <v>46271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
+        <v>349741948</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" s="2">
+        <v>46271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
+        <v>349810320</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="2">
+        <v>74002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
+        <v>349810320</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71" s="2">
+        <v>74002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
+        <v>349933078</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="2">
+        <v>57080</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
+        <v>349933078</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="2">
+        <v>57080</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
+        <v>349933506</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="2">
+        <v>57076</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
+        <v>349933506</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2">
+        <v>57076</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
+        <v>349933782</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="2">
+        <v>57081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
+        <v>349933782</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D77" s="2">
+        <v>57081</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
+        <v>349934319</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="2">
+        <v>86144</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
+        <v>349934319</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="2">
+        <v>86144</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
+        <v>349956073</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="2">
+        <v>56532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
+        <v>349956073</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D81" s="2">
+        <v>56532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
+        <v>350054764</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82" s="2">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
+        <v>350054764</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D83" s="2">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
+        <v>350057569</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84" s="2">
+        <v>71010</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
+        <v>350057569</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D85" s="2">
+        <v>71010</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
+        <v>350077287</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D86" s="2">
+        <v>92008</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
+        <v>350077287</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D87" s="2">
+        <v>92008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
+        <v>350078099</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="2">
+        <v>65525</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
+        <v>350078099</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D89" s="2">
+        <v>65525</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
+        <v>350282663</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90" s="2">
+        <v>65532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
+        <v>350282663</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D91" s="2">
+        <v>65532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
+        <v>350356246</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92" s="2">
+        <v>111002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
+        <v>350356246</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="2">
+        <v>111002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
+        <v>350356705</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94" s="2">
+        <v>111003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
+        <v>350356705</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D95" s="2">
+        <v>111003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
+        <v>350359355</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" s="2">
+        <v>98127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
+        <v>350359355</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" s="2">
+        <v>98127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
+        <v>350373616</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="2">
+        <v>96502</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
+        <v>350373616</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D99" s="2">
+        <v>96502</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
+        <v>350374938</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100" s="2">
+        <v>50562</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
+        <v>350374938</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D101" s="2">
+        <v>50562</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
+        <v>350376431</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="2">
+        <v>68582</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
+        <v>350376431</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D103" s="2">
+        <v>68582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
+        <v>351126106</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104" s="2">
+        <v>88006</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
+        <v>351126106</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D105" s="2">
+        <v>88006</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
+        <v>351243275</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="2">
+        <v>74003</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
+        <v>351243275</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="2">
+        <v>74003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
+        <v>351244682</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108" s="2">
+        <v>61077</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
+        <v>351244682</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D109" s="2">
+        <v>61077</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
+        <v>351423255</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="2">
+        <v>57255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
+        <v>351423255</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="2">
+        <v>57255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
+        <v>351733216</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112" s="2">
+        <v>47192</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
+        <v>351733216</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D113" s="2">
+        <v>47192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
+        <v>351819588</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114" s="2">
+        <v>47022</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
+        <v>351819588</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D115" s="2">
+        <v>47022</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
+        <v>351872321</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="2">
+        <v>47088</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
+        <v>351872321</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D117" s="2">
+        <v>47088</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
+        <v>351894362</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118" s="2">
+        <v>81214</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
+        <v>351894362</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D119" s="2">
+        <v>81214</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
+        <v>351895841</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C120" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D2">
-        <v>97502</v>
+      <c r="D120" s="2">
+        <v>81215</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
+        <v>351895841</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D121" s="2">
+        <v>81215</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
+        <v>351982407</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122" s="2">
+        <v>57294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
+        <v>351982407</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D123" s="2">
+        <v>57294</v>
       </c>
     </row>
   </sheetData>
